--- a/TableTrialCounts.xlsx
+++ b/TableTrialCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\imageAB_submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF5693-BEED-4C33-8DEB-BA92CE78C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8097AD9-4B20-49AB-A9B5-0474B2C9CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="2" xr2:uid="{6C22D218-B04F-451A-AD2D-A212E1B40A22}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{6C22D218-B04F-451A-AD2D-A212E1B40A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="193">
   <si>
     <t>Lag</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>Table 1: Numbewr of trials presented during the AB task. Parenthetical numbers indicate the subset of T1 items subsequently presented during the memory test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      con1 - con6 indicate the proportion of images that received confidence ratings of 1 to 6</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,15 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,24 +778,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,48 +1144,48 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>28</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>28</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>10</v>
       </c>
     </row>
@@ -1206,7 +1199,7 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="4">
@@ -1230,7 +1223,7 @@
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5">
@@ -1253,7 +1246,7 @@
       <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5">
@@ -1276,7 +1269,7 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5">
@@ -1290,56 +1283,56 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="5">
         <v>12</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1534,7 +1527,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,78 +1540,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1626,10 +1619,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1664,10 +1657,10 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1702,10 +1695,10 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1740,10 +1733,10 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1778,37 +1771,37 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1816,37 +1809,37 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1854,10 +1847,10 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1892,10 +1885,10 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1930,10 +1923,10 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1968,10 +1961,10 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2006,10 +1999,10 @@
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2044,10 +2037,10 @@
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="13" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2082,10 +2075,10 @@
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="13" t="s">
         <v>171</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2120,10 +2113,10 @@
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2155,152 +2148,156 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A21:L21"/>
     <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:L24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TableTrialCounts.xlsx
+++ b/TableTrialCounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\imageAB_submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8097AD9-4B20-49AB-A9B5-0474B2C9CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FBB2CE-D82B-4E7B-ACAC-704E8830CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{6C22D218-B04F-451A-AD2D-A212E1B40A22}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{6C22D218-B04F-451A-AD2D-A212E1B40A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,18 +43,6 @@
     <t>Lag</t>
   </si>
   <si>
-    <t>Both.Targets</t>
-  </si>
-  <si>
-    <t>T1.Only</t>
-  </si>
-  <si>
-    <t>T2.Only</t>
-  </si>
-  <si>
-    <t>No.Target</t>
-  </si>
-  <si>
     <t>84 (84)</t>
   </si>
   <si>
@@ -617,6 +605,18 @@
   </si>
   <si>
     <t xml:space="preserve">                      con1 - con6 indicate the proportion of images that received confidence ratings of 1 to 6</t>
+  </si>
+  <si>
+    <t>Both Targets</t>
+  </si>
+  <si>
+    <t>T1 Only</t>
+  </si>
+  <si>
+    <t>T2 Only</t>
+  </si>
+  <si>
+    <t>No Target</t>
   </si>
 </sst>
 </file>
@@ -1132,38 +1132,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB8F6A4-F2A7-4441-B23C-3CBC9EF5DA1E}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1171,13 +1172,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
         <v>28</v>
@@ -1194,13 +1195,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <v>28</v>
@@ -1217,14 +1218,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <f>D4</f>
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5">
         <v>24</v>
@@ -1241,13 +1242,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>12</v>
@@ -1264,13 +1265,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5">
         <v>24</v>
@@ -1287,13 +1288,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5">
         <v>12</v>
@@ -1307,7 +1308,7 @@
     </row>
     <row r="10" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1361,160 +1362,160 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2876B2-EF53-4775-AE53-97747CDA00D1}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
@@ -1541,40 +1542,40 @@
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1582,37 +1583,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1620,37 +1621,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="G4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1658,37 +1659,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1696,37 +1697,37 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="G6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1734,37 +1735,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="G7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1772,37 +1773,37 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="I8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1810,37 +1811,37 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1848,37 +1849,37 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1886,37 +1887,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1924,37 +1925,37 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1962,37 +1963,37 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2000,37 +2001,37 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2038,37 +2039,37 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2076,37 +2077,37 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,42 +2115,42 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2165,7 +2166,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2181,7 +2182,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2197,7 +2198,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2213,7 +2214,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2229,7 +2230,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2245,7 +2246,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2261,7 +2262,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
